--- a/scripts/names.xlsx
+++ b/scripts/names.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Produktivitätsmonitor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Github\tariflohnmonitor\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA3015F-A060-4676-86A4-8B733E2BD7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A5EA93-4D2E-4680-A610-96FE21196D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="353">
   <si>
     <t>gen_y06cbbs</t>
   </si>
@@ -1075,6 +1075,15 @@
   </si>
   <si>
     <t>Tariflohnindex nach Gruppen 2006</t>
+  </si>
+  <si>
+    <t>OGD_prodvindexusb2021_KJID2021_PVISTD_1</t>
+  </si>
+  <si>
+    <t>OGD_prodindexstd2021_KJID2021_PVISTD_1</t>
+  </si>
+  <si>
+    <t>Produktivitätsindex 2021</t>
   </si>
 </sst>
 </file>
@@ -1412,10 +1421,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:C169"/>
+  <dimension ref="A1:C171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1592,33 +1601,33 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>33</v>
+      <c r="A16" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>235</v>
+        <v>352</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>35</v>
+      <c r="A17" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>235</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
         <v>235</v>
@@ -1626,10 +1635,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
         <v>235</v>
@@ -1637,10 +1646,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
         <v>235</v>
@@ -1648,10 +1657,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
         <v>235</v>
@@ -1659,10 +1668,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
         <v>235</v>
@@ -1670,10 +1679,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
         <v>235</v>
@@ -1681,10 +1690,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
         <v>235</v>
@@ -1692,10 +1701,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
         <v>235</v>
@@ -1703,10 +1712,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C26" t="s">
         <v>235</v>
@@ -1714,10 +1723,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
         <v>235</v>
@@ -1725,10 +1734,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
         <v>235</v>
@@ -1736,10 +1745,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
         <v>235</v>
@@ -1747,32 +1756,32 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C32" t="s">
         <v>234</v>
@@ -1780,10 +1789,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C33" t="s">
         <v>234</v>
@@ -1791,10 +1800,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s">
         <v>234</v>
@@ -1802,10 +1811,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C35" t="s">
         <v>234</v>
@@ -1813,10 +1822,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C36" t="s">
         <v>234</v>
@@ -1824,10 +1833,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C37" t="s">
         <v>234</v>
@@ -1835,10 +1844,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C38" t="s">
         <v>234</v>
@@ -1846,10 +1855,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C39" t="s">
         <v>234</v>
@@ -1857,10 +1866,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C40" t="s">
         <v>234</v>
@@ -1868,10 +1877,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C41" t="s">
         <v>234</v>
@@ -1879,10 +1888,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C42" t="s">
         <v>234</v>
@@ -1890,10 +1899,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C43" t="s">
         <v>234</v>
@@ -1901,10 +1910,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C44" t="s">
         <v>234</v>
@@ -1912,10 +1921,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C45" t="s">
         <v>234</v>
@@ -1923,10 +1932,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C46" t="s">
         <v>234</v>
@@ -1934,10 +1943,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C47" t="s">
         <v>234</v>
@@ -1945,10 +1954,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C48" t="s">
         <v>234</v>
@@ -1956,10 +1965,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C49" t="s">
         <v>234</v>
@@ -1967,10 +1976,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C50" t="s">
         <v>234</v>
@@ -1978,10 +1987,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C51" t="s">
         <v>234</v>
@@ -1989,10 +1998,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C52" t="s">
         <v>234</v>
@@ -2000,10 +2009,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C53" t="s">
         <v>234</v>
@@ -2011,10 +2020,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C54" t="s">
         <v>234</v>
@@ -2022,10 +2031,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C55" t="s">
         <v>234</v>
@@ -2033,10 +2042,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C56" t="s">
         <v>234</v>
@@ -2044,10 +2053,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C57" t="s">
         <v>234</v>
@@ -2055,10 +2064,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C58" t="s">
         <v>234</v>
@@ -2066,10 +2075,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C59" t="s">
         <v>234</v>
@@ -2077,10 +2086,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C60" t="s">
         <v>234</v>
@@ -2088,10 +2097,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C61" t="s">
         <v>234</v>
@@ -2099,10 +2108,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C62" t="s">
         <v>234</v>
@@ -2110,10 +2119,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C63" t="s">
         <v>234</v>
@@ -2121,10 +2130,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C64" t="s">
         <v>234</v>
@@ -2132,10 +2141,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C65" t="s">
         <v>234</v>
@@ -2143,10 +2152,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C66" t="s">
         <v>234</v>
@@ -2154,10 +2163,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C67" t="s">
         <v>234</v>
@@ -2165,10 +2174,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C68" t="s">
         <v>234</v>
@@ -2176,10 +2185,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C69" t="s">
         <v>234</v>
@@ -2187,10 +2196,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C70" t="s">
         <v>234</v>
@@ -2198,10 +2207,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C71" t="s">
         <v>234</v>
@@ -2209,10 +2218,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C72" t="s">
         <v>234</v>
@@ -2220,10 +2229,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C73" t="s">
         <v>234</v>
@@ -2231,10 +2240,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C74" t="s">
         <v>234</v>
@@ -2242,10 +2251,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C75" t="s">
         <v>234</v>
@@ -2253,10 +2262,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C76" t="s">
         <v>234</v>
@@ -2264,10 +2273,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C77" t="s">
         <v>234</v>
@@ -2275,10 +2284,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C78" t="s">
         <v>234</v>
@@ -2286,10 +2295,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C79" t="s">
         <v>234</v>
@@ -2297,10 +2306,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C80" t="s">
         <v>234</v>
@@ -2308,10 +2317,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C81" t="s">
         <v>234</v>
@@ -2319,10 +2328,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C82" t="s">
         <v>234</v>
@@ -2330,10 +2339,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C83" t="s">
         <v>234</v>
@@ -2341,10 +2350,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C84" t="s">
         <v>234</v>
@@ -2352,10 +2361,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C85" t="s">
         <v>234</v>
@@ -2363,10 +2372,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C86" t="s">
         <v>234</v>
@@ -2374,10 +2383,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C87" t="s">
         <v>234</v>
@@ -2385,10 +2394,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C88" t="s">
         <v>234</v>
@@ -2396,10 +2405,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C89" t="s">
         <v>234</v>
@@ -2407,10 +2416,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C90" t="s">
         <v>234</v>
@@ -2418,10 +2427,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C91" t="s">
         <v>234</v>
@@ -2429,10 +2438,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C92" t="s">
         <v>234</v>
@@ -2440,10 +2449,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C93" t="s">
         <v>234</v>
@@ -2451,10 +2460,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C94" t="s">
         <v>234</v>
@@ -2462,10 +2471,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C95" t="s">
         <v>234</v>
@@ -2473,10 +2482,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C96" t="s">
         <v>234</v>
@@ -2484,10 +2493,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C97" t="s">
         <v>234</v>
@@ -2495,10 +2504,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C98" t="s">
         <v>234</v>
@@ -2506,10 +2515,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C99" t="s">
         <v>234</v>
@@ -2517,10 +2526,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C100" t="s">
         <v>234</v>
@@ -2528,10 +2537,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C101" t="s">
         <v>234</v>
@@ -2539,10 +2548,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C102" t="s">
         <v>234</v>
@@ -2550,10 +2559,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C103" t="s">
         <v>234</v>
@@ -2561,10 +2570,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C104" t="s">
         <v>234</v>
@@ -2572,10 +2581,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C105" t="s">
         <v>234</v>
@@ -2583,10 +2592,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C106" t="s">
         <v>234</v>
@@ -2594,10 +2603,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C107" t="s">
         <v>234</v>
@@ -2605,10 +2614,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C108" t="s">
         <v>234</v>
@@ -2616,10 +2625,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C109" t="s">
         <v>234</v>
@@ -2627,10 +2636,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C110" t="s">
         <v>234</v>
@@ -2638,10 +2647,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C111" t="s">
         <v>234</v>
@@ -2649,10 +2658,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C112" t="s">
         <v>234</v>
@@ -2660,10 +2669,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C113" t="s">
         <v>234</v>
@@ -2671,10 +2680,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C114" t="s">
         <v>234</v>
@@ -2682,10 +2691,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C115" t="s">
         <v>234</v>
@@ -2693,109 +2702,109 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C116" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C117" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B118" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C116" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C117" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="C118" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C119" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C120" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>345</v>
+        <v>241</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>348</v>
+        <v>245</v>
+      </c>
+      <c r="C121" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C122" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B124" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C124" s="1" t="s">
         <v>349</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C123" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C124" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="C125" t="s">
         <v>274</v>
@@ -2803,10 +2812,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C126" t="s">
         <v>274</v>
@@ -2814,10 +2823,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C127" t="s">
         <v>274</v>
@@ -2825,10 +2834,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C128" t="s">
         <v>274</v>
@@ -2836,10 +2845,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C129" t="s">
         <v>274</v>
@@ -2847,10 +2856,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C130" t="s">
         <v>274</v>
@@ -2858,10 +2867,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C131" t="s">
         <v>274</v>
@@ -2869,10 +2878,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C132" t="s">
         <v>274</v>
@@ -2880,10 +2889,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C133" t="s">
         <v>274</v>
@@ -2891,10 +2900,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C134" t="s">
         <v>274</v>
@@ -2902,10 +2911,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C135" t="s">
         <v>274</v>
@@ -2913,10 +2922,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C136" t="s">
         <v>274</v>
@@ -2924,32 +2933,32 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="C137" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="C138" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="C139" t="s">
         <v>303</v>
@@ -2957,10 +2966,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C140" t="s">
         <v>303</v>
@@ -2968,10 +2977,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C141" t="s">
         <v>303</v>
@@ -2979,10 +2988,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C142" t="s">
         <v>303</v>
@@ -2990,10 +2999,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C143" t="s">
         <v>303</v>
@@ -3001,10 +3010,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C144" t="s">
         <v>303</v>
@@ -3012,10 +3021,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C145" t="s">
         <v>303</v>
@@ -3023,10 +3032,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C146" t="s">
         <v>303</v>
@@ -3034,10 +3043,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C147" t="s">
         <v>303</v>
@@ -3045,10 +3054,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C148" t="s">
         <v>303</v>
@@ -3056,10 +3065,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C149" t="s">
         <v>303</v>
@@ -3067,10 +3076,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C150" t="s">
         <v>303</v>
@@ -3078,32 +3087,32 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>324</v>
+        <v>301</v>
       </c>
       <c r="C151" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="C152" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="C153" t="s">
         <v>332</v>
@@ -3111,10 +3120,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C154" t="s">
         <v>332</v>
@@ -3122,10 +3131,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C155" t="s">
         <v>332</v>
@@ -3133,10 +3142,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C156" t="s">
         <v>332</v>
@@ -3144,10 +3153,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C157" t="s">
         <v>332</v>
@@ -3155,10 +3164,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C158" t="s">
         <v>332</v>
@@ -3166,10 +3175,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C159" t="s">
         <v>332</v>
@@ -3177,10 +3186,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C160" t="s">
         <v>332</v>
@@ -3188,10 +3197,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C161" t="s">
         <v>332</v>
@@ -3199,10 +3208,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C162" t="s">
         <v>332</v>
@@ -3210,10 +3219,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C163" t="s">
         <v>332</v>
@@ -3221,67 +3230,89 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C164" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="2" t="s">
-        <v>334</v>
+      <c r="A165" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
+      </c>
+      <c r="C165" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="2" t="s">
-        <v>336</v>
+      <c r="A166" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>344</v>
+        <v>331</v>
+      </c>
+      <c r="C166" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="B169" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C167" s="3" t="s">
+      <c r="C169" s="3" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="B170" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C168" s="3" t="s">
+      <c r="C170" s="3" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="B171" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C169" s="3" t="s">
+      <c r="C171" s="3" t="s">
         <v>333</v>
       </c>
     </row>
